--- a/ILR_TestSuite/MIP UAT Test Scenarios/Rate_Table_Safrican Just Funeral.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/Rate_Table_Safrican Just Funeral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3EA1AE-6543-4620-9B84-1C3838F75643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E20D46-D7E1-4146-AB26-B46FC558D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
-  <si>
-    <t>SF02001323</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="81">
   <si>
     <t>Policy No</t>
   </si>
@@ -48,16 +45,7 @@
     <t>Function</t>
   </si>
   <si>
-    <t>CancelPolicy</t>
-  </si>
-  <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>Cancel a policy</t>
-  </si>
-  <si>
-    <t>The policy should change status from In-force to Not Taken Up</t>
   </si>
   <si>
     <t>Scenario Detail</t>
@@ -78,22 +66,7 @@
     <t>Test_Date</t>
   </si>
   <si>
-    <t>SK20001060</t>
-  </si>
-  <si>
-    <t>ChangeBeneficiary</t>
-  </si>
-  <si>
-    <t>The Beneficiary should be added or changed from the correct date</t>
-  </si>
-  <si>
-    <t>The names and details of the benifciary should be changed</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Jabulani</t>
   </si>
   <si>
     <t>Surname</t>
@@ -126,12 +99,6 @@
     <t>9905046555083</t>
   </si>
   <si>
-    <t>The policy should be scheduled to be canceled on the first of the next month</t>
-  </si>
-  <si>
-    <t>The beneficiary's details should be changed</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
@@ -148,9 +115,6 @@
   </si>
   <si>
     <t>ML_20000</t>
-  </si>
-  <si>
-    <t>Main Life R30000</t>
   </si>
   <si>
     <t>ML_40000</t>
@@ -306,7 +270,16 @@
     <t>DecreaseSumAssured</t>
   </si>
   <si>
-    <t>SF28010125</t>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>SK00008868</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>09/12/2021 16:06:44</t>
   </si>
 </sst>
 </file>
@@ -769,11 +742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0" rightToLeft="false">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,96 +754,62 @@
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.6328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" customWidth="1"/>
     <col min="6" max="6" width="22.1796875" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
+        <v>1000</v>
+      </c>
+      <c r="H2" s="21" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I2" s="21" t="inlineStr">
+        <is>
+          <t>10/12/2021 11:15:17</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -884,266 +823,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCEC4A5-EA47-4865-975C-89362B916486}">
   <dimension ref="A1:AP88"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="Y1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="AA1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="AG1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AH1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AM1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AO1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AP1" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AH2" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
@@ -7739,8 +7681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E7B35-3B13-4283-A904-8C8CA7625FAB}">
   <dimension ref="A1:AY88"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7748,316 +7690,318 @@
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" customWidth="1"/>
     <col min="15" max="15" width="12.81640625" customWidth="1"/>
+    <col min="42" max="42" width="24.81640625" customWidth="1"/>
+    <col min="50" max="50" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="AY1" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR1" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY1" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AH2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AM2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AP2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AQ2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AR2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AS2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AU2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AV2" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AW2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AX2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AY2" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
@@ -17178,7 +17122,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17195,42 +17139,42 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3"/>
     </row>
